--- a/results/pvalue_SIDER_all_pathway_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_pathway_AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.343</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.327</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.378</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.147</t>
+          <t>13.767</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.075</t>
+          <t>11.928</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.117</t>
+          <t>12.694</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.542</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10.674</t>
+          <t>11.071</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10.101</t>
+          <t>10.471</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.536</t>
+          <t>10.937</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.756</t>
+          <t>10.117</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.667</t>
+          <t>6.755</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
